--- a/knowledge/data/knowledge-long.xlsx
+++ b/knowledge/data/knowledge-long.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="237" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="711" uniqueCount="109">
   <si>
     <t>name</t>
   </si>

--- a/knowledge/data/knowledge-long.xlsx
+++ b/knowledge/data/knowledge-long.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="711" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1185" uniqueCount="109">
   <si>
     <t>name</t>
   </si>

--- a/knowledge/data/knowledge-long.xlsx
+++ b/knowledge/data/knowledge-long.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1185" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2133" uniqueCount="109">
   <si>
     <t>name</t>
   </si>

--- a/knowledge/data/knowledge-long.xlsx
+++ b/knowledge/data/knowledge-long.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2370" uniqueCount="109">
   <si>
     <t>name</t>
   </si>

--- a/knowledge/data/knowledge-long.xlsx
+++ b/knowledge/data/knowledge-long.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2370" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2607" uniqueCount="109">
   <si>
     <t>name</t>
   </si>

--- a/knowledge/data/knowledge-long.xlsx
+++ b/knowledge/data/knowledge-long.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2607" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2844" uniqueCount="109">
   <si>
     <t>name</t>
   </si>

--- a/knowledge/data/knowledge-long.xlsx
+++ b/knowledge/data/knowledge-long.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2844" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3054" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -606,7 +606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -823,441 +823,342 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="s">
         <v>107</v>
       </c>
     </row>
